--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Thing.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Thing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19252" uniqueCount="7147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19253" uniqueCount="7147">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">weapon_broken</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">decayed weapon</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">incubator</t>
   </si>
   <si>
-    <t xml:space="preserve">孵卵器 </t>
+    <t xml:space="preserve">孵卵器</t>
   </si>
   <si>
     <t xml:space="preserve">rationmaker</t>
@@ -33838,7 +33838,7 @@
         <v>1291</v>
       </c>
       <c r="B316" t="s">
-        <v>5350</v>
+        <v>22</v>
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
